--- a/ProblemSheet450.xlsx
+++ b/ProblemSheet450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049711D0-D062-4299-8658-9B4A41942EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62847988-6EEC-4D51-BAEC-3A08B8391EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,12 @@
   </si>
   <si>
     <t>Serial no:</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>PENDING</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1906,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1920,7 +1926,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -1934,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -1948,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -1962,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2568,7 +2574,7 @@
         <v>54</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2582,7 +2588,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -2596,7 +2602,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
@@ -2610,7 +2616,7 @@
         <v>57</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
@@ -2624,7 +2630,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">

--- a/ProblemSheet450.xlsx
+++ b/ProblemSheet450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62847988-6EEC-4D51-BAEC-3A08B8391EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AC75D4-6AC5-42D4-86D7-ADFAB7E69573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1982,7 +1982,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -1996,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2066,7 +2066,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">

--- a/ProblemSheet450.xlsx
+++ b/ProblemSheet450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AC75D4-6AC5-42D4-86D7-ADFAB7E69573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD905EE-7FEB-4FEB-A0BB-0911AF15E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2150,7 +2150,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">

--- a/ProblemSheet450.xlsx
+++ b/ProblemSheet450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD905EE-7FEB-4FEB-A0BB-0911AF15E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBADEB6-F8F7-4025-8B77-171209DB0C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>PENDING</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2010,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2080,7 +2083,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2094,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2108,7 +2111,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2122,7 +2125,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2192,7 +2195,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2234,7 +2237,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">

--- a/ProblemSheet450.xlsx
+++ b/ProblemSheet450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBADEB6-F8F7-4025-8B77-171209DB0C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B252C5-AE02-401E-A885-072A8BB870EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>TODO</t>
+  </si>
+  <si>
+    <t>Skipped</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2251,7 +2254,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2265,7 +2268,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>4</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2279,7 +2282,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">

--- a/ProblemSheet450.xlsx
+++ b/ProblemSheet450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B252C5-AE02-401E-A885-072A8BB870EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5435D60-9994-4F8C-8333-953101354CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2296,7 +2296,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
